--- a/Productions/UGOKU-One_V0.4.4_BOM.xlsx
+++ b/Productions/UGOKU-One_V0.4.4_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TA2\Documents\KiCad\UGOKU-One\Productions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E52675-9A62-44D4-A743-6FB16FED7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10082F1-D9E0-4466-A5E9-79081BE14424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="3090" windowWidth="21585" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33900" yWindow="2715" windowWidth="21585" windowHeight="12570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>B03B-XASK-1-A(LF)(SN)</t>
-  </si>
-  <si>
     <t>B04B-XASK-1(LF)(SN)</t>
   </si>
   <si>
@@ -279,10 +276,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>C264992</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>C264994</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -338,6 +331,12 @@
   <si>
     <t>C2906988</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>C265055</t>
+  </si>
+  <si>
+    <t>B03B-XASK-1(LF)(SN)</t>
   </si>
 </sst>
 </file>
@@ -815,14 +814,14 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -860,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -914,21 +913,21 @@
         <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -998,7 +997,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7" t="s">
@@ -1010,47 +1009,47 @@
         <v>1792863</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1058,11 +1057,11 @@
         <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1070,11 +1069,11 @@
         <v>46</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1082,11 +1081,11 @@
         <v>45</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Productions/UGOKU-One_V0.4.4_BOM.xlsx
+++ b/Productions/UGOKU-One_V0.4.4_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TA2\Documents\KiCad\UGOKU-One\Productions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10082F1-D9E0-4466-A5E9-79081BE14424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9679481A-BC98-478E-A019-01AB37CCC893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33900" yWindow="2715" windowWidth="21585" windowHeight="12570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1575" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>C7371913</t>
-  </si>
-  <si>
     <t>C2937625</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>B03B-XASK-1(LF)(SN)</t>
+  </si>
+  <si>
+    <t>C84256</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -814,14 +814,14 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -913,7 +913,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1018,26 +1018,26 @@
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
